--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,37 +747,43 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,37 +794,43 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -842,16 +862,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,11 +1003,11 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -975,11 +1015,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,19 +1155,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1119,16 +1179,22 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1185,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,17 +1268,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
@@ -1215,19 +1289,25 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,8 +1347,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,40 +1362,46 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1488,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,40 +1503,46 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,40 +1550,46 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1677,8 +1817,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,40 +1832,46 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,86 +1926,98 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,22 +2052,24 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -1904,25 +2078,31 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1998,54 +2184,66 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>1400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L44" s="3">
         <v>800</v>
       </c>
       <c r="M44" s="3">
+        <v>700</v>
+      </c>
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2074,10 +2272,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2085,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2097,10 +2301,10 @@
         <v>800</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
@@ -2109,25 +2313,31 @@
         <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>1100</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2179,7 +2395,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2188,13 +2404,13 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2208,8 +2424,14 @@
       <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2659,14 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2428,16 +2680,16 @@
         <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
@@ -2446,16 +2698,22 @@
         <v>1900</v>
       </c>
       <c r="M54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,16 +2759,16 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2515,22 +2777,28 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,19 +2809,19 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2570,8 +2838,14 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2582,13 +2856,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2611,8 +2885,14 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,19 +2900,19 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -2644,7 +2924,7 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
@@ -2652,8 +2932,14 @@
       <c r="O60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2682,10 +2968,10 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2704,8 +2996,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2713,17 +3005,17 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,28 +3167,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
@@ -2890,16 +3206,22 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3609,14 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3252,40 +3624,46 @@
         <v>800</v>
       </c>
       <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1400</v>
       </c>
       <c r="L76" s="3">
         <v>1400</v>
       </c>
       <c r="M76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,40 +3770,46 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -3702,22 +4136,28 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,19 +4173,21 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,22 +4564,28 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4102,25 +4594,31 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4181,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4190,15 +4694,21 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,37 +756,40 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -809,28 +815,31 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,8 +1019,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1009,8 +1028,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1021,8 +1040,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,19 +1134,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1129,25 +1155,28 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,22 +1184,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1185,16 +1214,19 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,20 +1304,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
@@ -1295,19 +1331,22 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,46 +1404,49 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1554,49 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1604,49 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1904,49 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2004,104 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2149,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2072,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2084,25 +2170,28 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2190,13 +2282,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,7 +2302,7 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
@@ -2216,10 +2311,10 @@
         <v>700</v>
       </c>
       <c r="I44" s="3">
+        <v>700</v>
+      </c>
+      <c r="J44" s="3">
         <v>1400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
@@ -2228,22 +2323,25 @@
         <v>800</v>
       </c>
       <c r="M44" s="3">
+        <v>800</v>
+      </c>
+      <c r="N44" s="3">
         <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
       </c>
       <c r="O44" s="3">
         <v>800</v>
       </c>
       <c r="P44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2278,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2307,19 +2408,19 @@
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1100</v>
       </c>
       <c r="M46" s="3">
         <v>1100</v>
@@ -2328,16 +2429,19 @@
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,13 +2487,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2401,19 +2508,19 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2686,34 +2811,37 @@
         <v>1600</v>
       </c>
       <c r="I54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,19 +2889,19 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2783,27 +2913,30 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2815,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2824,7 +2957,7 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2862,10 +2998,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,34 +3039,34 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2974,7 +3116,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3002,14 +3147,14 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3017,8 +3162,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,22 +3339,22 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3212,7 +3369,7 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,28 +3809,28 @@
         <v>800</v>
       </c>
       <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1200</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
       </c>
       <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1400</v>
       </c>
       <c r="M76" s="3">
         <v>1400</v>
@@ -3654,16 +3839,19 @@
         <v>1400</v>
       </c>
       <c r="O76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +3964,49 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,25 +4322,28 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4142,22 +4358,25 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4591,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -4606,7 +4851,7 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4615,10 +4860,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4691,24 +4942,27 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -759,37 +763,40 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -818,33 +825,36 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -865,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -880,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,20 +1039,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1043,8 +1063,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,19 +1164,19 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1158,51 +1185,54 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1217,16 +1247,19 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1260,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1295,32 +1329,35 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
@@ -1334,19 +1371,22 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,46 +1450,49 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,46 +1609,49 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1607,46 +1662,49 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1860,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,46 +1980,49 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2007,101 +2086,107 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2161,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2173,25 +2260,28 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2285,13 +2378,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2401,7 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
@@ -2314,10 +2410,10 @@
         <v>700</v>
       </c>
       <c r="J44" s="3">
+        <v>700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>800</v>
       </c>
       <c r="L44" s="3">
         <v>800</v>
@@ -2326,22 +2422,25 @@
         <v>800</v>
       </c>
       <c r="N44" s="3">
+        <v>800</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
       </c>
       <c r="P44" s="3">
         <v>800</v>
       </c>
       <c r="Q44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2379,7 +2478,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2411,19 +2513,19 @@
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
@@ -2432,16 +2534,19 @@
         <v>1100</v>
       </c>
       <c r="P46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2511,19 +2619,19 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2814,34 +2940,37 @@
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,19 +3023,19 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2916,22 +3047,25 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +3073,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2951,7 +3085,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2960,7 +3094,7 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,10 +3138,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,34 +3182,34 @@
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3119,7 +3262,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3150,14 +3296,14 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3165,8 +3311,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,34 +3485,37 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3372,7 +3530,7 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3812,28 +3998,28 @@
         <v>800</v>
       </c>
       <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1200</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M76" s="3">
         <v>1300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1400</v>
       </c>
       <c r="N76" s="3">
         <v>1400</v>
@@ -3842,16 +4028,19 @@
         <v>1400</v>
       </c>
       <c r="P76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3967,46 +4162,49 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,28 +4539,31 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4361,22 +4578,25 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4830,7 +5076,7 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4839,13 +5085,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4854,7 +5100,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4863,10 +5109,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4945,24 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -766,42 +770,45 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -819,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -828,36 +835,39 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -878,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -893,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1042,20 +1062,20 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1167,19 +1194,19 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1188,54 +1215,57 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1250,16 +1280,19 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1297,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,46 +1496,49 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,46 +1664,49 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,46 +1720,49 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1933,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,46 +2056,49 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,104 +2168,110 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2242,7 +2329,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2251,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2263,25 +2350,28 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2381,13 +2474,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,7 +2500,7 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>700</v>
@@ -2413,10 +2509,10 @@
         <v>700</v>
       </c>
       <c r="K44" s="3">
+        <v>700</v>
+      </c>
+      <c r="L44" s="3">
         <v>1400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>800</v>
       </c>
       <c r="M44" s="3">
         <v>800</v>
@@ -2425,22 +2521,25 @@
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>800</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
       </c>
       <c r="R44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +2580,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
@@ -2516,19 +2618,19 @@
         <v>800</v>
       </c>
       <c r="J46" s="3">
+        <v>800</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1100</v>
       </c>
       <c r="O46" s="3">
         <v>1100</v>
@@ -2537,16 +2639,19 @@
         <v>1100</v>
       </c>
       <c r="Q46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2718,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2622,19 +2730,19 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
@@ -2943,34 +3069,37 @@
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3026,19 +3157,19 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3050,33 +3181,36 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3088,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3097,7 +3231,7 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3141,10 +3278,10 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3170,13 +3307,16 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -3185,34 +3325,34 @@
         <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3265,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3299,14 +3445,14 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3314,8 +3460,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3533,7 +3691,7 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9800</v>
       </c>
       <c r="H72" s="3">
         <v>-9400</v>
       </c>
       <c r="I72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4001,28 +4187,28 @@
         <v>800</v>
       </c>
       <c r="G76" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1200</v>
       </c>
       <c r="L76" s="3">
         <v>1200</v>
       </c>
       <c r="M76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N76" s="3">
         <v>1300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1400</v>
       </c>
       <c r="O76" s="3">
         <v>1400</v>
@@ -4031,16 +4217,19 @@
         <v>1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,46 +4360,49 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,22 +4768,22 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4581,22 +4798,25 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -5079,7 +5325,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5088,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5103,7 +5349,7 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5112,10 +5358,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,13 +5416,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -764,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -773,37 +784,46 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -829,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -858,25 +878,34 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -891,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -900,22 +929,31 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +974,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,55 +1098,64 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1256,11 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1197,16 +1277,16 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1215,36 +1295,45 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>300</v>
-      </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1256,25 +1345,25 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1283,16 +1372,25 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1411,22 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1334,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1343,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1369,19 +1470,28 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1396,17 +1506,17 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
@@ -1414,10 +1524,10 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1425,8 +1535,17 @@
       <c r="T21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,25 +1600,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1508,16 +1636,16 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1529,16 +1657,25 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,25 +1795,34 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1676,16 +1831,16 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1697,33 +1852,42 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1732,16 +1896,16 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1753,16 +1917,25 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1990,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2055,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2185,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2006,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2015,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2041,25 +2250,34 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2068,16 +2286,16 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2089,16 +2307,25 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,25 +2380,34 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2180,16 +2416,16 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2201,77 +2437,95 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2571,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2695,17 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2477,13 +2755,22 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2503,28 +2790,28 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>700</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
@@ -2533,24 +2820,33 @@
         <v>800</v>
       </c>
       <c r="S44" s="3">
+        <v>700</v>
+      </c>
+      <c r="T44" s="3">
+        <v>800</v>
+      </c>
+      <c r="U44" s="3">
+        <v>800</v>
+      </c>
+      <c r="V44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2583,24 +2879,33 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
@@ -2609,7 +2914,7 @@
         <v>800</v>
       </c>
       <c r="G46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
@@ -2621,37 +2926,46 @@
         <v>800</v>
       </c>
       <c r="K46" s="3">
+        <v>800</v>
+      </c>
+      <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +3020,17 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2721,25 +3044,25 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2748,10 +3071,10 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -2762,8 +3085,17 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3280,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -2986,8 +3345,17 @@
       <c r="T52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3410,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
@@ -3057,7 +3434,7 @@
         <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
@@ -3072,34 +3449,43 @@
         <v>1600</v>
       </c>
       <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,49 +3531,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3196,52 +3588,61 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
@@ -3254,8 +3655,17 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3281,7 +3691,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3290,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3310,13 +3720,22 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -3325,10 +3744,10 @@
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
@@ -3337,37 +3756,46 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3411,19 +3839,28 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3448,29 +3885,29 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3915,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,28 +4110,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -3676,16 +4149,16 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
-        <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
-      </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -3694,16 +4167,25 @@
         <v>500</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
+        <v>500</v>
+      </c>
+      <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-9200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-8200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-7800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4720,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E76" s="3">
         <v>800</v>
@@ -4190,46 +4747,55 @@
         <v>800</v>
       </c>
       <c r="H76" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
       </c>
       <c r="J76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>1000</v>
       </c>
       <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,86 +4850,104 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4372,16 +4956,16 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4393,16 +4977,25 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5016,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5400,17 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,19 +5418,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4789,10 +5439,10 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4801,22 +5451,31 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5496,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5685,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +6035,82 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,22 +6165,31 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5455,24 +6210,33 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -775,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -793,54 +797,57 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -858,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -867,33 +874,36 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -902,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -929,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -944,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1124,8 +1144,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1133,20 +1153,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1157,8 +1177,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1286,19 +1313,19 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1307,33 +1334,36 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1342,31 +1372,31 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1381,16 +1411,19 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,22 +1447,23 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1444,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1479,47 +1513,50 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
@@ -1533,19 +1570,22 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,22 +1649,25 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1636,46 +1679,49 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,22 +1853,25 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1831,60 +1883,63 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1896,46 +1951,49 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,22 +2261,25 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2224,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2259,22 +2329,25 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2286,46 +2359,49 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,22 +2465,25 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2416,116 +2495,122 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,25 +2660,26 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2601,7 +2688,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2610,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2622,25 +2709,28 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2764,18 +2857,21 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -2799,7 +2895,7 @@
         <v>600</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
@@ -2808,10 +2904,10 @@
         <v>700</v>
       </c>
       <c r="O44" s="3">
+        <v>700</v>
+      </c>
+      <c r="P44" s="3">
         <v>1400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>800</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
@@ -2820,22 +2916,25 @@
         <v>800</v>
       </c>
       <c r="S44" s="3">
+        <v>800</v>
+      </c>
+      <c r="T44" s="3">
         <v>700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>800</v>
       </c>
       <c r="U44" s="3">
         <v>800</v>
       </c>
       <c r="V44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2888,7 +2987,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,25 +2998,28 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
       </c>
       <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
@@ -2935,19 +3037,19 @@
         <v>800</v>
       </c>
       <c r="N46" s="3">
+        <v>800</v>
+      </c>
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1100</v>
       </c>
       <c r="S46" s="3">
         <v>1100</v>
@@ -2956,16 +3058,19 @@
         <v>1100</v>
       </c>
       <c r="U46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3047,13 +3155,13 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3065,19 +3173,19 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,13 +3406,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -3304,7 +3424,7 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
@@ -3434,10 +3560,10 @@
         <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
@@ -3458,34 +3584,37 @@
         <v>1600</v>
       </c>
       <c r="O54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3549,10 +3680,10 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -3561,19 +3692,19 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3585,45 +3716,48 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3635,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3644,7 +3778,7 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3700,10 +3837,10 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3729,13 +3866,16 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -3744,10 +3884,10 @@
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
@@ -3756,34 +3896,34 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
@@ -3794,13 +3934,16 @@
       <c r="W60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3848,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3880,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3894,14 +4040,14 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3909,8 +4055,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -4176,7 +4334,7 @@
         <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="E72" s="3">
         <v>-9900</v>
       </c>
       <c r="F72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9700</v>
       </c>
       <c r="H72" s="3">
         <v>-9800</v>
       </c>
       <c r="I72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9400</v>
       </c>
       <c r="L72" s="3">
         <v>-9400</v>
       </c>
       <c r="M72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,7 +4924,7 @@
         <v>900</v>
       </c>
       <c r="E76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F76" s="3">
         <v>800</v>
@@ -4756,28 +4942,28 @@
         <v>800</v>
       </c>
       <c r="K76" s="3">
+        <v>800</v>
+      </c>
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1200</v>
       </c>
       <c r="P76" s="3">
         <v>1200</v>
       </c>
       <c r="Q76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R76" s="3">
         <v>1300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1400</v>
       </c>
       <c r="S76" s="3">
         <v>1400</v>
@@ -4786,16 +4972,19 @@
         <v>1400</v>
       </c>
       <c r="U76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,92 +5048,98 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4956,46 +5151,49 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,19 +5623,22 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5430,22 +5647,22 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5460,22 +5677,25 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,28 +6287,31 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -6074,7 +6320,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6083,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6098,7 +6344,7 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,25 +6423,28 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6219,24 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -782,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -800,37 +804,40 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -868,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -877,33 +884,36 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -915,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -942,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -957,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,16 +1144,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1147,8 +1167,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1156,20 +1176,20 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1180,8 +1200,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1312,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1316,19 +1343,19 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1337,36 +1364,39 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1375,31 +1405,31 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1414,16 +1444,19 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1481,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1463,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1481,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1516,50 +1550,53 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
@@ -1573,19 +1610,22 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,25 +1692,28 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1682,46 +1725,49 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,25 +1905,28 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1886,63 +1938,66 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1954,46 +2009,49 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2331,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2279,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2297,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2332,25 +2402,28 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2362,46 +2435,49 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,25 +2544,28 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2498,119 +2577,125 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,28 +2747,29 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2691,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2700,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2712,25 +2799,28 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="X41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2860,13 +2953,16 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,7 +2970,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
@@ -2898,7 +2994,7 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N44" s="3">
         <v>700</v>
@@ -2907,10 +3003,10 @@
         <v>700</v>
       </c>
       <c r="P44" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>800</v>
       </c>
       <c r="R44" s="3">
         <v>800</v>
@@ -2919,22 +3015,25 @@
         <v>800</v>
       </c>
       <c r="T44" s="3">
+        <v>800</v>
+      </c>
+      <c r="U44" s="3">
         <v>700</v>
-      </c>
-      <c r="U44" s="3">
-        <v>800</v>
       </c>
       <c r="V44" s="3">
         <v>800</v>
       </c>
       <c r="W44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2990,7 +3089,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3001,28 +3100,31 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
@@ -3040,19 +3142,19 @@
         <v>800</v>
       </c>
       <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1100</v>
       </c>
       <c r="T46" s="3">
         <v>1100</v>
@@ -3061,16 +3163,19 @@
         <v>1100</v>
       </c>
       <c r="V46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3155,16 +3263,16 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3176,19 +3284,19 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3538,7 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
@@ -3427,7 +3547,7 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,16 +3668,19 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1600</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
@@ -3563,10 +3689,10 @@
         <v>1600</v>
       </c>
       <c r="H54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
@@ -3587,34 +3713,37 @@
         <v>1600</v>
       </c>
       <c r="P54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3683,10 +3814,10 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3695,19 +3826,19 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3719,22 +3850,25 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,25 +3876,25 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3772,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3781,7 +3915,7 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3840,10 +3977,10 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4018,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -3887,10 +4027,10 @@
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3899,34 +4039,34 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -3937,17 +4077,20 @@
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
@@ -3994,7 +4137,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>200</v>
@@ -4005,13 +4148,16 @@
       <c r="X61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4029,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4043,14 +4189,14 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4058,8 +4204,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,52 +4432,55 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
       <c r="L66" s="3">
+        <v>700</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
@@ -4337,7 +4495,7 @@
         <v>500</v>
       </c>
       <c r="V66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,22 +4814,25 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9900</v>
       </c>
       <c r="F72" s="3">
         <v>-9900</v>
       </c>
       <c r="G72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H72" s="3">
         <v>-9800</v>
@@ -4667,52 +4841,55 @@
         <v>-9800</v>
       </c>
       <c r="J72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9400</v>
       </c>
       <c r="M72" s="3">
         <v>-9400</v>
       </c>
       <c r="N72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4927,7 +5113,7 @@
         <v>900</v>
       </c>
       <c r="F76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G76" s="3">
         <v>800</v>
@@ -4945,28 +5131,28 @@
         <v>800</v>
       </c>
       <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1200</v>
       </c>
       <c r="Q76" s="3">
         <v>1200</v>
       </c>
       <c r="R76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S76" s="3">
         <v>1300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1400</v>
       </c>
       <c r="T76" s="3">
         <v>1400</v>
@@ -4975,16 +5161,19 @@
         <v>1400</v>
       </c>
       <c r="V76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W76" s="3">
         <v>1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,98 +5240,104 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -5154,46 +5349,49 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,22 +5840,25 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5650,22 +5867,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5680,22 +5897,25 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>-100</v>
-      </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,31 +6533,34 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -6323,7 +6569,7 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6332,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6347,7 +6593,7 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6356,10 +6602,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,28 +6675,31 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6474,24 +6726,27 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,125 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -789,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -807,37 +810,40 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -887,36 +893,39 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -928,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -955,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,19 +1163,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1170,8 +1189,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1179,20 +1198,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1203,8 +1222,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,17 +1338,18 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
@@ -1346,19 +1372,19 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1367,39 +1393,42 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1408,31 +1437,31 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1447,16 +1476,19 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1500,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1518,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1553,53 +1586,56 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
@@ -1613,19 +1649,22 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,28 +1734,31 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1728,46 +1770,49 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,28 +1956,31 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1941,66 +1992,69 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -2012,46 +2066,49 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2352,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2370,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2405,28 +2474,31 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2438,46 +2510,49 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,28 +2622,31 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2580,122 +2658,128 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,31 +2833,32 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2781,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2790,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2802,25 +2888,28 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Y41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2956,24 +3048,27 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2997,7 +3092,7 @@
         <v>600</v>
       </c>
       <c r="N44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O44" s="3">
         <v>700</v>
@@ -3006,10 +3101,10 @@
         <v>700</v>
       </c>
       <c r="Q44" s="3">
+        <v>700</v>
+      </c>
+      <c r="R44" s="3">
         <v>1400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>800</v>
       </c>
       <c r="S44" s="3">
         <v>800</v>
@@ -3018,22 +3113,25 @@
         <v>800</v>
       </c>
       <c r="U44" s="3">
+        <v>800</v>
+      </c>
+      <c r="V44" s="3">
         <v>700</v>
-      </c>
-      <c r="V44" s="3">
-        <v>800</v>
       </c>
       <c r="W44" s="3">
         <v>800</v>
       </c>
       <c r="X44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Y44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3053,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3092,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3103,31 +3201,34 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
@@ -3145,19 +3246,19 @@
         <v>800</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1100</v>
       </c>
       <c r="U46" s="3">
         <v>1100</v>
@@ -3166,16 +3267,19 @@
         <v>1100</v>
       </c>
       <c r="W46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3266,16 +3373,16 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3287,19 +3394,19 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3541,7 +3660,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -3550,7 +3669,7 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,10 +3805,10 @@
         <v>1500</v>
       </c>
       <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>1600</v>
@@ -3692,10 +3817,10 @@
         <v>1600</v>
       </c>
       <c r="I54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1600</v>
@@ -3716,34 +3841,37 @@
         <v>1600</v>
       </c>
       <c r="Q54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3925,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3817,10 +3947,10 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3829,19 +3959,19 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3853,22 +3983,25 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,25 +4012,25 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3909,7 +4042,7 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3918,7 +4051,7 @@
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3980,10 +4116,10 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4021,7 +4160,7 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -4030,10 +4169,10 @@
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -4042,34 +4181,34 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,11 +4231,11 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
@@ -4140,7 +4282,7 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>200</v>
@@ -4151,16 +4293,19 @@
       <c r="Y61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4178,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4192,14 +4337,14 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4207,8 +4352,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,46 +4601,46 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
@@ -4498,7 +4655,7 @@
         <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
@@ -4506,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,25 +4987,28 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9900</v>
       </c>
       <c r="G72" s="3">
         <v>-9900</v>
       </c>
       <c r="H72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="I72" s="3">
         <v>-9800</v>
@@ -4844,52 +5017,55 @@
         <v>-9800</v>
       </c>
       <c r="K72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-9400</v>
       </c>
       <c r="N72" s="3">
         <v>-9400</v>
       </c>
       <c r="O72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,13 +5283,16 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E76" s="3">
         <v>900</v>
@@ -5116,7 +5301,7 @@
         <v>900</v>
       </c>
       <c r="G76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H76" s="3">
         <v>800</v>
@@ -5134,28 +5319,28 @@
         <v>800</v>
       </c>
       <c r="M76" s="3">
+        <v>800</v>
+      </c>
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1200</v>
       </c>
       <c r="R76" s="3">
         <v>1200</v>
       </c>
       <c r="S76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T76" s="3">
         <v>1300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1400</v>
       </c>
       <c r="U76" s="3">
         <v>1400</v>
@@ -5164,16 +5349,19 @@
         <v>1400</v>
       </c>
       <c r="W76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X76" s="3">
         <v>1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,104 +5431,110 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -5352,46 +5546,49 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,22 +6056,25 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5870,22 +6086,22 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -5900,22 +6116,25 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,25 +6790,25 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6572,7 +6817,7 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6581,13 +6826,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6596,7 +6841,7 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6605,10 +6850,13 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,31 +6926,34 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6729,24 +6980,27 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -795,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -813,42 +817,45 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -857,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -887,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -896,39 +903,42 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -940,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -967,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -982,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,11 +1197,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1192,8 +1212,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1201,20 +1221,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1245,8 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,20 +1365,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1375,19 +1402,19 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1396,42 +1423,45 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1440,31 +1470,31 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1479,16 +1509,19 @@
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1536,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1554,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1589,56 +1623,59 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
@@ -1652,19 +1689,22 @@
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,31 +1777,34 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1773,46 +1816,49 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,31 +2008,34 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1995,69 +2047,72 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -2069,46 +2124,49 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2424,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2442,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2477,31 +2547,34 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2513,46 +2586,49 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,31 +2701,34 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2661,125 +2740,131 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,25 +2930,25 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2870,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2879,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2891,25 +2978,28 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3051,27 +3144,30 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -3095,7 +3191,7 @@
         <v>600</v>
       </c>
       <c r="O44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P44" s="3">
         <v>700</v>
@@ -3104,10 +3200,10 @@
         <v>700</v>
       </c>
       <c r="R44" s="3">
+        <v>700</v>
+      </c>
+      <c r="S44" s="3">
         <v>1400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>800</v>
       </c>
       <c r="T44" s="3">
         <v>800</v>
@@ -3116,22 +3212,25 @@
         <v>800</v>
       </c>
       <c r="V44" s="3">
+        <v>800</v>
+      </c>
+      <c r="W44" s="3">
         <v>700</v>
-      </c>
-      <c r="W44" s="3">
-        <v>800</v>
       </c>
       <c r="X44" s="3">
         <v>800</v>
       </c>
       <c r="Y44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Z44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3154,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3193,7 +3292,7 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3204,34 +3303,37 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
+        <v>800</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
@@ -3249,19 +3351,19 @@
         <v>800</v>
       </c>
       <c r="Q46" s="3">
+        <v>800</v>
+      </c>
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1100</v>
       </c>
       <c r="V46" s="3">
         <v>1100</v>
@@ -3270,16 +3372,19 @@
         <v>1100</v>
       </c>
       <c r="X46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3367,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3376,16 +3484,16 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3397,19 +3505,19 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,13 +3765,16 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -3663,7 +3783,7 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -3672,7 +3792,7 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,22 +3919,25 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1500</v>
       </c>
       <c r="F54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
@@ -3820,10 +3946,10 @@
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1600</v>
       </c>
       <c r="L54" s="3">
         <v>1600</v>
@@ -3844,34 +3970,37 @@
         <v>1600</v>
       </c>
       <c r="R54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,7 +4066,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3950,10 +4081,10 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -3962,19 +4093,19 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3986,27 +4117,30 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -4015,25 +4149,25 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4045,7 +4179,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -4054,7 +4188,7 @@
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4119,10 +4256,10 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4163,7 +4303,7 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -4172,10 +4312,10 @@
         <v>600</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -4184,34 +4324,34 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,11 +4377,11 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
@@ -4285,7 +4428,7 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4307,8 +4453,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4326,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4340,14 +4486,14 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>100</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4355,8 +4501,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,58 +4747,61 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
       <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -4658,7 +4816,7 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9900</v>
       </c>
       <c r="H72" s="3">
         <v>-9900</v>
       </c>
       <c r="I72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="J72" s="3">
         <v>-9800</v>
@@ -5020,52 +5194,55 @@
         <v>-9800</v>
       </c>
       <c r="L72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-9400</v>
       </c>
       <c r="O72" s="3">
         <v>-9400</v>
       </c>
       <c r="P72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,16 +5469,19 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>900</v>
       </c>
       <c r="F76" s="3">
         <v>900</v>
@@ -5304,7 +5490,7 @@
         <v>900</v>
       </c>
       <c r="H76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
@@ -5322,28 +5508,28 @@
         <v>800</v>
       </c>
       <c r="N76" s="3">
+        <v>800</v>
+      </c>
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1200</v>
       </c>
       <c r="S76" s="3">
         <v>1200</v>
       </c>
       <c r="T76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U76" s="3">
         <v>1300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>1400</v>
       </c>
       <c r="V76" s="3">
         <v>1400</v>
@@ -5352,16 +5538,19 @@
         <v>1400</v>
       </c>
       <c r="X76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>1500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,110 +5623,116 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -5549,46 +5744,49 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,22 +6273,25 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -6089,22 +6306,22 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6119,22 +6336,25 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>-100</v>
-      </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,37 +7024,40 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6820,7 +7066,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6829,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -6844,7 +7090,7 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6853,10 +7099,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6938,25 +7190,25 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6983,24 +7235,27 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -802,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -820,45 +824,48 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -867,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -897,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -906,42 +913,45 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -953,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -980,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -995,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>100</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,11 +1220,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1215,8 +1235,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1224,20 +1244,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1248,8 +1268,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,14 +1402,14 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
@@ -1405,19 +1432,19 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1426,45 +1453,48 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1473,31 +1503,31 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1512,16 +1542,19 @@
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,17 +1582,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1573,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1591,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1626,59 +1660,62 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
@@ -1692,19 +1729,22 @@
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,34 +1820,37 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1819,46 +1862,49 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,34 +2060,37 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -2050,72 +2102,75 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2127,46 +2182,49 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2497,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2515,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2550,34 +2620,37 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2589,46 +2662,49 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,34 +2780,37 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2743,128 +2822,134 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,37 +3007,38 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2960,7 +3047,7 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2969,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2981,25 +3068,28 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,17 +3165,20 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -3147,13 +3240,16 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,16 +3257,16 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
@@ -3194,7 +3290,7 @@
         <v>600</v>
       </c>
       <c r="P44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q44" s="3">
         <v>700</v>
@@ -3203,10 +3299,10 @@
         <v>700</v>
       </c>
       <c r="S44" s="3">
+        <v>700</v>
+      </c>
+      <c r="T44" s="3">
         <v>1400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>800</v>
       </c>
       <c r="U44" s="3">
         <v>800</v>
@@ -3215,22 +3311,25 @@
         <v>800</v>
       </c>
       <c r="W44" s="3">
+        <v>800</v>
+      </c>
+      <c r="X44" s="3">
         <v>700</v>
-      </c>
-      <c r="X44" s="3">
-        <v>800</v>
       </c>
       <c r="Y44" s="3">
         <v>800</v>
       </c>
       <c r="Z44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AA44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3256,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3295,7 +3394,7 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3306,37 +3405,40 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
       </c>
       <c r="K46" s="3">
+        <v>800</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
@@ -3354,19 +3456,19 @@
         <v>800</v>
       </c>
       <c r="R46" s="3">
+        <v>800</v>
+      </c>
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1100</v>
       </c>
       <c r="W46" s="3">
         <v>1100</v>
@@ -3375,16 +3477,19 @@
         <v>1100</v>
       </c>
       <c r="Y46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3487,16 +3595,16 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3508,19 +3616,19 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,7 +3897,7 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -3786,7 +3906,7 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -3795,7 +3915,7 @@
         <v>700</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,25 +4045,28 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
@@ -3949,10 +4075,10 @@
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1600</v>
       </c>
       <c r="M54" s="3">
         <v>1600</v>
@@ -3973,34 +4099,37 @@
         <v>1600</v>
       </c>
       <c r="S54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,19 +4187,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -4084,10 +4215,10 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -4096,19 +4227,19 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4120,22 +4251,25 @@
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4277,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -4152,25 +4286,25 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4182,7 +4316,7 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
@@ -4191,7 +4325,7 @@
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4259,10 +4396,10 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -4288,13 +4425,16 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -4306,7 +4446,7 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>600</v>
@@ -4315,10 +4455,10 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
@@ -4327,34 +4467,34 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,11 +4523,11 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
@@ -4431,7 +4574,7 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>200</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4456,8 +4602,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4475,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4489,14 +4635,14 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4504,8 +4650,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,61 +4905,64 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
@@ -4819,7 +4977,7 @@
         <v>500</v>
       </c>
       <c r="Y66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>600</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,22 +5347,22 @@
         <v>-10300</v>
       </c>
       <c r="E72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9900</v>
       </c>
       <c r="I72" s="3">
         <v>-9900</v>
       </c>
       <c r="J72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="K72" s="3">
         <v>-9800</v>
@@ -5197,52 +5371,55 @@
         <v>-9800</v>
       </c>
       <c r="M72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-9400</v>
       </c>
       <c r="P72" s="3">
         <v>-9400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,10 +5667,10 @@
         <v>1000</v>
       </c>
       <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>900</v>
       </c>
       <c r="G76" s="3">
         <v>900</v>
@@ -5493,7 +5679,7 @@
         <v>900</v>
       </c>
       <c r="I76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J76" s="3">
         <v>800</v>
@@ -5511,28 +5697,28 @@
         <v>800</v>
       </c>
       <c r="O76" s="3">
+        <v>800</v>
+      </c>
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1200</v>
       </c>
       <c r="T76" s="3">
         <v>1200</v>
       </c>
       <c r="U76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V76" s="3">
         <v>1300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1400</v>
       </c>
       <c r="W76" s="3">
         <v>1400</v>
@@ -5541,16 +5727,19 @@
         <v>1400</v>
       </c>
       <c r="Y76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>1500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,116 +5815,122 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5747,46 +5942,49 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,23 +6490,26 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -6309,22 +6526,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -6339,22 +6556,25 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,40 +7270,43 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -7069,7 +7315,7 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7078,13 +7324,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -7093,7 +7339,7 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7102,10 +7348,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,37 +7430,40 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7238,24 +7490,27 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -809,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -827,37 +831,40 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>200</v>
       </c>
       <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -877,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -907,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -916,33 +923,36 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -951,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -966,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -993,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -1008,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,11 +1243,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1238,8 +1258,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1247,20 +1267,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1271,8 +1291,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,26 +1419,27 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
@@ -1435,19 +1462,19 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1456,48 +1483,51 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>300</v>
       </c>
       <c r="AB17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1506,31 +1536,31 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
@@ -1545,16 +1575,19 @@
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,20 +1616,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1610,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1628,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1663,62 +1697,65 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
@@ -1732,19 +1769,22 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,37 +1863,40 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1865,46 +1908,49 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
       </c>
       <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,37 +2112,40 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -2105,75 +2157,78 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -2185,46 +2240,49 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-200</v>
       </c>
       <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,20 +2610,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2570,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2588,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2623,37 +2693,40 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2665,46 +2738,49 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-200</v>
       </c>
       <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,37 +2859,40 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2825,131 +2904,137 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-200</v>
       </c>
       <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,40 +3094,41 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -3050,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3059,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -3071,25 +3158,28 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>300</v>
       </c>
       <c r="AA41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AB41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,11 +3270,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -3243,33 +3336,36 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
@@ -3293,7 +3389,7 @@
         <v>600</v>
       </c>
       <c r="Q44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R44" s="3">
         <v>700</v>
@@ -3302,10 +3398,10 @@
         <v>700</v>
       </c>
       <c r="T44" s="3">
+        <v>700</v>
+      </c>
+      <c r="U44" s="3">
         <v>1400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>800</v>
       </c>
       <c r="V44" s="3">
         <v>800</v>
@@ -3314,27 +3410,30 @@
         <v>800</v>
       </c>
       <c r="X44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y44" s="3">
         <v>700</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>800</v>
       </c>
       <c r="Z44" s="3">
         <v>800</v>
       </c>
       <c r="AA44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AB44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3358,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3397,7 +3496,7 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,31 +3519,31 @@
         <v>800</v>
       </c>
       <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
@@ -3459,19 +3561,19 @@
         <v>800</v>
       </c>
       <c r="S46" s="3">
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1100</v>
       </c>
       <c r="X46" s="3">
         <v>1100</v>
@@ -3480,16 +3582,19 @@
         <v>1100</v>
       </c>
       <c r="Z46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3589,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3598,16 +3706,16 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3619,19 +3727,19 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,19 +4005,22 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -3909,7 +4029,7 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>700</v>
@@ -3918,7 +4038,7 @@
         <v>700</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,19 +4183,19 @@
         <v>1500</v>
       </c>
       <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1500</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I54" s="3">
         <v>1700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
@@ -4078,10 +4204,10 @@
         <v>1600</v>
       </c>
       <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
         <v>1400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1600</v>
       </c>
       <c r="N54" s="3">
         <v>1600</v>
@@ -4102,34 +4228,37 @@
         <v>1600</v>
       </c>
       <c r="T54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,13 +4328,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4218,10 +4349,10 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -4230,19 +4361,19 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4254,22 +4385,25 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4280,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4289,25 +4423,25 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4319,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -4328,7 +4462,7 @@
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4399,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,7 +4577,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -4449,7 +4589,7 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -4458,10 +4598,10 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -4470,34 +4610,34 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
       <c r="S60" s="3">
+        <v>600</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>400</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,11 +4669,11 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
@@ -4577,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>200</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4605,8 +4751,8 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4624,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4638,14 +4784,14 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>100</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4653,8 +4799,8 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,64 +5063,67 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
       </c>
       <c r="U66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
@@ -4980,7 +5138,7 @@
         <v>500</v>
       </c>
       <c r="Z66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>600</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,34 +5509,37 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="E72" s="3">
         <v>-10300</v>
       </c>
       <c r="F72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9900</v>
       </c>
       <c r="J72" s="3">
         <v>-9900</v>
       </c>
       <c r="K72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="L72" s="3">
         <v>-9800</v>
@@ -5374,52 +5548,55 @@
         <v>-9800</v>
       </c>
       <c r="N72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-9400</v>
       </c>
       <c r="Q72" s="3">
         <v>-9400</v>
       </c>
       <c r="R72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,22 +5841,25 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
       </c>
       <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>900</v>
       </c>
       <c r="H76" s="3">
         <v>900</v>
@@ -5682,7 +5868,7 @@
         <v>900</v>
       </c>
       <c r="J76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K76" s="3">
         <v>800</v>
@@ -5700,28 +5886,28 @@
         <v>800</v>
       </c>
       <c r="P76" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1200</v>
       </c>
       <c r="U76" s="3">
         <v>1200</v>
       </c>
       <c r="V76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W76" s="3">
         <v>1300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1400</v>
       </c>
       <c r="X76" s="3">
         <v>1400</v>
@@ -5730,16 +5916,19 @@
         <v>1400</v>
       </c>
       <c r="Z76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>1500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,122 +6007,128 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -5945,46 +6140,49 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-200</v>
       </c>
       <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,26 +6707,29 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -6529,22 +6746,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -6559,22 +6776,25 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,34 +7528,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -7318,7 +7564,7 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7327,13 +7573,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -7342,7 +7588,7 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7351,10 +7597,13 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,40 +7682,43 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7493,24 +7745,27 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,152 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -816,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -834,37 +837,40 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
         <v>200</v>
       </c>
       <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -926,36 +932,39 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -964,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -979,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1006,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,11 +1265,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1261,8 +1280,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1270,20 +1289,20 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1294,8 +1313,8 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,20 +1455,20 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1465,19 +1491,19 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1486,51 +1512,54 @@
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>300</v>
       </c>
       <c r="AC17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1539,31 +1568,31 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
@@ -1578,16 +1607,19 @@
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,23 +1649,24 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1647,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1665,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1700,65 +1733,68 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
@@ -1772,19 +1808,22 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,31 +1917,31 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1911,46 +1953,49 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2124,31 +2175,31 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2160,46 +2211,49 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2207,31 +2261,31 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2243,46 +2297,49 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,23 +2679,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2643,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2661,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2696,8 +2765,11 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2705,31 +2777,31 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2741,46 +2813,49 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2871,31 +2949,31 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2907,134 +2985,140 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,43 +3180,44 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -3140,7 +3226,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3149,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -3161,25 +3247,28 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>300</v>
       </c>
       <c r="AB41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AC41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3273,11 +3365,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -3339,13 +3431,16 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3353,22 +3448,22 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
@@ -3392,7 +3487,7 @@
         <v>600</v>
       </c>
       <c r="R44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S44" s="3">
         <v>700</v>
@@ -3401,10 +3496,10 @@
         <v>700</v>
       </c>
       <c r="U44" s="3">
+        <v>700</v>
+      </c>
+      <c r="V44" s="3">
         <v>1400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>800</v>
       </c>
       <c r="W44" s="3">
         <v>800</v>
@@ -3413,30 +3508,33 @@
         <v>800</v>
       </c>
       <c r="Y44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z44" s="3">
         <v>700</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>800</v>
       </c>
       <c r="AA44" s="3">
         <v>800</v>
       </c>
       <c r="AB44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AC44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3460,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3499,7 +3597,7 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3510,43 +3608,46 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
       <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
@@ -3564,19 +3665,19 @@
         <v>800</v>
       </c>
       <c r="T46" s="3">
+        <v>800</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1000</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1100</v>
       </c>
       <c r="Y46" s="3">
         <v>1100</v>
@@ -3585,16 +3686,19 @@
         <v>1100</v>
       </c>
       <c r="AA46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>1200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3700,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3709,16 +3816,16 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3730,19 +3837,19 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="V48" s="3">
-        <v>100</v>
-      </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3759,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,22 +4124,25 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -4032,7 +4151,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
@@ -4041,7 +4160,7 @@
         <v>700</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,31 +4296,34 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="3">
         <v>1500</v>
       </c>
       <c r="F54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="3">
         <v>1600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1500</v>
       </c>
       <c r="H54" s="3">
         <v>1500</v>
       </c>
       <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
         <v>1700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1600</v>
@@ -4207,10 +4332,10 @@
         <v>1600</v>
       </c>
       <c r="M54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1600</v>
@@ -4231,34 +4356,37 @@
         <v>1600</v>
       </c>
       <c r="U54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4331,13 +4461,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4352,10 +4482,10 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -4364,19 +4494,19 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -4388,22 +4518,25 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4417,7 +4550,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -4426,25 +4559,25 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4456,7 +4589,7 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -4465,7 +4598,7 @@
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4485,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4539,10 +4675,10 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4568,19 +4704,22 @@
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -4592,7 +4731,7 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -4601,10 +4740,10 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -4613,34 +4752,34 @@
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
+        <v>600</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4672,11 +4814,11 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
@@ -4723,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>200</v>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4754,8 +4899,8 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4773,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4787,14 +4932,14 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>100</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4802,8 +4947,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5075,58 +5232,58 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
       <c r="L66" s="3">
+        <v>700</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
       </c>
       <c r="Q66" s="3">
+        <v>700</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
@@ -5141,7 +5298,7 @@
         <v>500</v>
       </c>
       <c r="AA66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB66" s="3">
         <v>600</v>
@@ -5149,8 +5306,11 @@
       <c r="AC66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,37 +5682,40 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-10300</v>
       </c>
       <c r="F72" s="3">
         <v>-10300</v>
       </c>
       <c r="G72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9900</v>
       </c>
       <c r="K72" s="3">
         <v>-9900</v>
       </c>
       <c r="L72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="M72" s="3">
         <v>-9800</v>
@@ -5551,52 +5724,55 @@
         <v>-9800</v>
       </c>
       <c r="O72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-9400</v>
       </c>
       <c r="R72" s="3">
         <v>-9400</v>
       </c>
       <c r="S72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,25 +6026,28 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
       </c>
       <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>900</v>
       </c>
       <c r="I76" s="3">
         <v>900</v>
@@ -5871,7 +6056,7 @@
         <v>900</v>
       </c>
       <c r="K76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L76" s="3">
         <v>800</v>
@@ -5889,28 +6074,28 @@
         <v>800</v>
       </c>
       <c r="Q76" s="3">
+        <v>800</v>
+      </c>
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>1200</v>
       </c>
       <c r="V76" s="3">
         <v>1200</v>
       </c>
       <c r="W76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X76" s="3">
         <v>1300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1400</v>
       </c>
       <c r="Y76" s="3">
         <v>1400</v>
@@ -5919,16 +6104,19 @@
         <v>1400</v>
       </c>
       <c r="AA76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>1500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6107,31 +6301,31 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -6143,46 +6337,49 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,29 +6923,32 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -6749,22 +6965,22 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -6779,22 +6995,25 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7531,34 +7776,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -7567,7 +7812,7 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7576,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7591,7 +7836,7 @@
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7600,10 +7845,13 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7694,34 +7945,34 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7748,24 +7999,27 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IVDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>IVDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,159 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -822,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -840,42 +844,45 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>200</v>
       </c>
       <c r="AD8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -884,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -896,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -926,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -935,39 +942,42 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>100</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -976,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -991,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1018,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -1033,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="3">
         <v>100</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,11 +1288,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1283,8 +1303,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1292,20 +1312,20 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1316,8 +1336,8 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1331,31 +1351,34 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,32 +1472,33 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1494,19 +1521,19 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1515,54 +1542,57 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>300</v>
       </c>
       <c r="AD17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1571,31 +1601,31 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
@@ -1610,16 +1640,19 @@
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,26 +1683,27 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1683,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1701,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1736,68 +1770,71 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
@@ -1811,19 +1848,22 @@
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1920,31 +1963,31 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1956,46 +1999,49 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
       <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2178,31 +2230,31 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -2214,46 +2266,49 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2264,31 +2319,31 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -2300,46 +2355,49 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
       <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,26 +2749,29 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2715,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2733,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,31 +2853,31 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2816,46 +2889,49 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2952,31 +3031,31 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2988,137 +3067,143 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,46 +3267,47 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -3229,7 +3316,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3238,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -3250,25 +3337,28 @@
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>300</v>
       </c>
       <c r="AC41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AD41" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3368,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -3434,13 +3527,16 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3451,22 +3547,22 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -3490,7 +3586,7 @@
         <v>600</v>
       </c>
       <c r="S44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T44" s="3">
         <v>700</v>
@@ -3499,10 +3595,10 @@
         <v>700</v>
       </c>
       <c r="V44" s="3">
+        <v>700</v>
+      </c>
+      <c r="W44" s="3">
         <v>1400</v>
-      </c>
-      <c r="W44" s="3">
-        <v>800</v>
       </c>
       <c r="X44" s="3">
         <v>800</v>
@@ -3511,22 +3607,25 @@
         <v>800</v>
       </c>
       <c r="Z44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA44" s="3">
         <v>700</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>800</v>
       </c>
       <c r="AB44" s="3">
         <v>800</v>
       </c>
       <c r="AC44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AD44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3536,8 +3635,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3561,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3600,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
@@ -3611,46 +3710,49 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
       </c>
       <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
       <c r="N46" s="3">
+        <v>800</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>800</v>
@@ -3668,19 +3770,19 @@
         <v>800</v>
       </c>
       <c r="U46" s="3">
+        <v>800</v>
+      </c>
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>1100</v>
       </c>
       <c r="Z46" s="3">
         <v>1100</v>
@@ -3689,16 +3791,19 @@
         <v>1100</v>
       </c>
       <c r="AB46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3810,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3819,16 +3927,16 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3840,19 +3948,19 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
         <v>200</v>
       </c>
-      <c r="W48" s="3">
-        <v>100</v>
-      </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4136,16 +4256,16 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -4154,7 +4274,7 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
@@ -4163,7 +4283,7 @@
         <v>700</v>
       </c>
       <c r="N52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,34 +4422,37 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1500</v>
       </c>
       <c r="I54" s="3">
         <v>1500</v>
       </c>
       <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1600</v>
       </c>
       <c r="L54" s="3">
         <v>1600</v>
@@ -4335,10 +4461,10 @@
         <v>1600</v>
       </c>
       <c r="N54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O54" s="3">
         <v>1400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1600</v>
       </c>
       <c r="P54" s="3">
         <v>1600</v>
@@ -4359,34 +4485,37 @@
         <v>1600</v>
       </c>
       <c r="V54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,13 +4579,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -4464,13 +4595,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4485,10 +4616,10 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -4497,19 +4628,19 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -4521,22 +4652,25 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4553,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -4562,25 +4696,25 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4592,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -4601,7 +4735,7 @@
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4678,10 +4815,10 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,13 +4856,13 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -4734,7 +4874,7 @@
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -4743,10 +4883,10 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
@@ -4755,34 +4895,34 @@
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>400</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
@@ -4793,13 +4933,16 @@
       <c r="AD60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4817,11 +4960,11 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
@@ -4868,7 +5011,7 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>200</v>
@@ -4879,70 +5022,73 @@
       <c r="AD61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>100</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4950,8 +5096,8 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,70 +5378,73 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
@@ -5301,7 +5459,7 @@
         <v>500</v>
       </c>
       <c r="AB66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC66" s="3">
         <v>600</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,40 +5856,43 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-10300</v>
       </c>
       <c r="G72" s="3">
         <v>-10300</v>
       </c>
       <c r="H72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9900</v>
       </c>
       <c r="L72" s="3">
         <v>-9900</v>
       </c>
       <c r="M72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="N72" s="3">
         <v>-9800</v>
@@ -5727,52 +5901,55 @@
         <v>-9800</v>
       </c>
       <c r="P72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-9400</v>
       </c>
       <c r="S72" s="3">
         <v>-9400</v>
       </c>
       <c r="T72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-9300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-7800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-7700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1000</v>
       </c>
       <c r="G76" s="3">
         <v>1000</v>
       </c>
       <c r="H76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>900</v>
       </c>
       <c r="J76" s="3">
         <v>900</v>
@@ -6059,7 +6245,7 @@
         <v>900</v>
       </c>
       <c r="L76" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M76" s="3">
         <v>800</v>
@@ -6077,28 +6263,28 @@
         <v>800</v>
       </c>
       <c r="R76" s="3">
+        <v>800</v>
+      </c>
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1200</v>
       </c>
       <c r="W76" s="3">
         <v>1200</v>
       </c>
       <c r="X76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>1400</v>
       </c>
       <c r="Z76" s="3">
         <v>1400</v>
@@ -6107,16 +6293,19 @@
         <v>1400</v>
       </c>
       <c r="AB76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>1500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6304,31 +6499,31 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -6340,46 +6535,49 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,23 +7152,23 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -6968,22 +7185,22 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -6998,22 +7215,25 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,13 +7529,16 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,13 +8007,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7779,34 +8025,34 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -7815,7 +8061,7 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7824,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -7839,7 +8085,7 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7848,10 +8094,13 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,46 +8185,49 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -8002,24 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
         <v>-100</v>
       </c>
       <c r="AB102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-300</v>
       </c>
     </row>
